--- a/TestData/JTPS-DEVQA/ConversionRates.xlsx
+++ b/TestData/JTPS-DEVQA/ConversionRates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -148,9 +148,6 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>wnd_AsynchronousTaskTypes</t>
-  </si>
-  <si>
     <t>elm_close</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>txt_Value</t>
   </si>
   <si>
-    <t>Automati</t>
-  </si>
-  <si>
     <t>5.3.0.4</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>5.2.6</t>
   </si>
   <si>
-    <t>allrows,value^Automati,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>5.3.2</t>
   </si>
   <si>
@@ -289,12 +280,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>wnd_Confirmationdialog</t>
-  </si>
-  <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -304,9 +289,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
     <t>DeleteRow</t>
   </si>
   <si>
-    <t>allrows,value^Automati</t>
-  </si>
-  <si>
     <t>elm_deleteConfirmation</t>
   </si>
   <si>
@@ -340,12 +319,6 @@
     <t>scrollandclick</t>
   </si>
   <si>
-    <t>elm_Confirmationdialog</t>
-  </si>
-  <si>
-    <t>btn_yes</t>
-  </si>
-  <si>
     <t>Field_Name1</t>
   </si>
   <si>
@@ -368,6 +341,27 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No code for lst or list verification </t>
+  </si>
+  <si>
+    <t>Scrolbar Not validate</t>
+  </si>
+  <si>
+    <t>Aut</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut</t>
   </si>
 </sst>
 </file>
@@ -551,7 +545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,17 +613,38 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -934,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,10 +966,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -987,37 +1002,37 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="31" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="34" t="s">
+      <c r="P1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="31" t="s">
         <v>10</v>
       </c>
       <c r="X1" t="s">
@@ -1025,14 +1040,14 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
@@ -1063,16 +1078,26 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="10"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
@@ -1092,21 +1117,31 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="M3" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="31"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
@@ -1130,21 +1165,29 @@
         <v>3</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="13"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>32</v>
@@ -1160,21 +1203,30 @@
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="M5" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
@@ -1198,17 +1250,25 @@
         <v>3</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="13"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
@@ -1228,21 +1288,30 @@
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="M7" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
@@ -1264,21 +1333,29 @@
       <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="31"/>
     </row>
     <row r="9" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
@@ -1294,18 +1371,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>37</v>
@@ -1313,10 +1390,18 @@
       <c r="P9" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="31"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
@@ -1336,21 +1421,30 @@
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="M10" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>42</v>
       </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="31"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
@@ -1372,28 +1466,36 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>19</v>
@@ -1410,24 +1512,32 @@
         <v>1</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="14"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="33"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>19</v>
@@ -1441,13 +1551,13 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>37</v>
@@ -1455,54 +1565,70 @@
       <c r="P13" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="33"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="3"/>
       <c r="D14" s="20"/>
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="33"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>19</v>
@@ -1511,36 +1637,44 @@
         <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="34"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>19</v>
@@ -1549,36 +1683,44 @@
         <v>21</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="34"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>19</v>
@@ -1587,74 +1729,92 @@
         <v>21</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="3"/>
       <c r="D18" s="20"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="34"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="3"/>
       <c r="D19" s="20"/>
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>19</v>
@@ -1663,36 +1823,44 @@
         <v>21</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="3"/>
       <c r="D20" s="20"/>
       <c r="E20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>19</v>
@@ -1701,34 +1869,42 @@
         <v>21</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>19</v>
@@ -1737,36 +1913,44 @@
         <v>21</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
+        <v>61</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="3"/>
       <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>19</v>
@@ -1780,31 +1964,39 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="34"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="3"/>
       <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>19</v>
@@ -1821,24 +2013,32 @@
         <v>1</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O23" s="17"/>
       <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="34"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="3"/>
       <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>19</v>
@@ -1852,31 +2052,39 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="34"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="3"/>
       <c r="D25" s="20"/>
       <c r="E25" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>19</v>
@@ -1890,31 +2098,39 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O25" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="34"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>19</v>
@@ -1923,36 +2139,44 @@
         <v>21</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
+        <v>67</v>
+      </c>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="3"/>
       <c r="D27" s="20"/>
       <c r="E27" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>19</v>
@@ -1965,24 +2189,34 @@
       <c r="K27" s="9"/>
       <c r="L27" s="23"/>
       <c r="M27" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="30"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>19</v>
@@ -1996,31 +2230,39 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="34"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>19</v>
@@ -2034,31 +2276,39 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="34"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>19</v>
@@ -2072,31 +2322,39 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="23" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
+        <v>74</v>
+      </c>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="34"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>19</v>
@@ -2110,31 +2368,39 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
+        <v>76</v>
+      </c>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="34"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>19</v>
@@ -2148,31 +2414,39 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="34"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="3"/>
       <c r="D33" s="20"/>
       <c r="E33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>19</v>
@@ -2181,36 +2455,42 @@
         <v>21</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="23" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+        <v>112</v>
+      </c>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>19</v>
@@ -2219,36 +2499,44 @@
         <v>21</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="23" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
+        <v>74</v>
+      </c>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="34"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>19</v>
@@ -2257,36 +2545,44 @@
         <v>21</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="33">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>18</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="34"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>19</v>
@@ -2299,33 +2595,39 @@
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="23" t="s">
-        <v>66</v>
+      <c r="L36" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="P36" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="34" t="s">
-        <v>18</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="34"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="31"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>19</v>
@@ -2336,16 +2638,16 @@
       <c r="I37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="1" t="s">
-        <v>105</v>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>37</v>
@@ -2353,10 +2655,18 @@
       <c r="P37" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="34"/>
+    </row>
+    <row r="38" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="4" t="s">
@@ -2372,38 +2682,44 @@
         <v>21</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="19" t="s">
-        <v>48</v>
+      <c r="L38" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="34"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="20"/>
       <c r="E39" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>19</v>
@@ -2412,36 +2728,44 @@
         <v>21</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="8" t="s">
-        <v>83</v>
+      <c r="L39" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>19</v>
@@ -2454,32 +2778,40 @@
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="23" t="s">
-        <v>66</v>
+      <c r="L40" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
+        <v>74</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>19</v>
@@ -2492,32 +2824,40 @@
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="8" t="s">
-        <v>76</v>
+      <c r="L41" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>19</v>
@@ -2531,31 +2871,39 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
+        <v>76</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>19</v>
@@ -2569,31 +2917,39 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="23" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>19</v>
@@ -2602,36 +2958,44 @@
         <v>21</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="23" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>19</v>
@@ -2640,36 +3004,44 @@
         <v>21</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="23" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>19</v>
@@ -2680,34 +3052,42 @@
       <c r="I46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="23" t="s">
-        <v>66</v>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>19</v>
@@ -2720,32 +3100,40 @@
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="8" t="s">
-        <v>66</v>
+      <c r="L47" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>19</v>
@@ -2756,34 +3144,42 @@
       <c r="I48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="1" t="s">
-        <v>105</v>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>19</v>
@@ -2796,25 +3192,33 @@
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="19" t="s">
-        <v>48</v>
+      <c r="L49" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="4" t="s">
@@ -2835,24 +3239,32 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="4" t="s">
@@ -2868,36 +3280,44 @@
         <v>21</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="8" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
+        <v>88</v>
+      </c>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="9"/>
+    </row>
+    <row r="52" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>19</v>
@@ -2906,36 +3326,44 @@
         <v>21</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
-      <c r="L52" s="23" t="s">
-        <v>66</v>
+      <c r="L52" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="9"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>19</v>
@@ -2944,36 +3372,44 @@
         <v>21</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="8" t="s">
-        <v>52</v>
+      <c r="L53" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="9"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>19</v>
@@ -2982,36 +3418,44 @@
         <v>21</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="8" t="s">
-        <v>52</v>
+      <c r="L54" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P54" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="9"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>19</v>
@@ -3024,32 +3468,40 @@
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="23" t="s">
-        <v>66</v>
+      <c r="L55" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O55" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P55" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="9"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>19</v>
@@ -3063,31 +3515,39 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="8" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="9"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="3"/>
       <c r="D57" s="20"/>
       <c r="E57" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>19</v>
@@ -3100,32 +3560,40 @@
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
-      <c r="L57" s="1" t="s">
-        <v>105</v>
+      <c r="L57" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="9"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>19</v>
@@ -3134,36 +3602,42 @@
         <v>21</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="19" t="s">
-        <v>48</v>
+      <c r="L58" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="9"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>19</v>
@@ -3176,32 +3650,40 @@
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="8" t="s">
-        <v>95</v>
+      <c r="L59" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O59" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P59" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="9"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>19</v>
@@ -3214,32 +3696,40 @@
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="23" t="s">
-        <v>66</v>
+      <c r="L60" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P60" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="9"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>19</v>
@@ -3248,7 +3738,7 @@
         <v>21</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -3256,26 +3746,36 @@
         <v>90</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O61" s="17"/>
-      <c r="P61" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="9"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>19</v>
@@ -3288,32 +3788,40 @@
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
-      <c r="L62" s="8" t="s">
-        <v>90</v>
+      <c r="L62" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O62" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P62" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="9"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>19</v>
@@ -3322,34 +3830,42 @@
         <v>21</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
-      <c r="L63" s="8" t="s">
-        <v>90</v>
+      <c r="L63" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O63" s="9"/>
-      <c r="P63" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="9"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>19</v>
@@ -3363,31 +3879,39 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="34"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>19</v>
@@ -3400,32 +3924,40 @@
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="8" t="s">
-        <v>66</v>
+      <c r="L65" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P65" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="34"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>19</v>
@@ -3434,34 +3966,44 @@
         <v>21</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="8" t="s">
-        <v>97</v>
+      <c r="L66" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="34"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
       <c r="E67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>19</v>
@@ -3470,36 +4012,44 @@
         <v>21</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="1" t="s">
-        <v>105</v>
+      <c r="L67" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="34"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>19</v>
@@ -3508,36 +4058,44 @@
         <v>21</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="19" t="s">
-        <v>48</v>
+      <c r="L68" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="34"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>19</v>
@@ -3550,32 +4108,40 @@
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
-      <c r="L69" s="8" t="s">
-        <v>95</v>
+      <c r="L69" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
+        <v>53</v>
+      </c>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="34"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
       <c r="E70" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>19</v>
@@ -3586,34 +4152,41 @@
       <c r="I70" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O70" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P70" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="O70" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="34"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>19</v>
@@ -3627,31 +4200,39 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="9"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>19</v>
@@ -3664,398 +4245,629 @@
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
-      <c r="L72" s="1" t="s">
-        <v>105</v>
+      <c r="L72" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+      <c r="X72" s="34"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E73" s="4" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="19" t="s">
-        <v>48</v>
+        <v>96</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P73" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O74" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P74" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N75" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O75" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P75" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O76" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P76" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O77" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N78" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O78" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P78" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N79" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P79" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O80" s="9"/>
-      <c r="P80" s="13"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P81" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="M82" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="M83" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="M84" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P73" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="R73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="S73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="T73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="U73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="V73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="W73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="X73" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="40"/>
+    </row>
+    <row r="75" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="40"/>
+    </row>
+    <row r="76" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="40"/>
+    </row>
+    <row r="77" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+    </row>
+    <row r="78" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="40"/>
+    </row>
+    <row r="79" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+    </row>
+    <row r="80" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+    </row>
+    <row r="81" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+    </row>
+    <row r="83" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+    </row>
+    <row r="84" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+    </row>
+    <row r="85" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+    </row>
+    <row r="86" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A439" s="37"/>
+      <c r="B439" s="37"/>
+      <c r="M439" s="37"/>
+      <c r="N439" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/JTPS-DEVQA/ConversionRates.xlsx
+++ b/TestData/JTPS-DEVQA/ConversionRates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -545,7 +545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,6 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -949,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X439"/>
+  <dimension ref="A1:X440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="F53" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,96 +4271,124 @@
       <c r="X72" s="34"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P73" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="32"/>
+      <c r="W73" s="32"/>
+      <c r="X73" s="34"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F74" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I74" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="K74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="L74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M73" s="9" t="s">
+      <c r="M74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O73" s="9" t="s">
+      <c r="O74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="44" t="s">
+      <c r="P74" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="Q73" s="32" t="s">
+      <c r="Q74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R73" s="32" t="s">
+      <c r="R74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="S73" s="32" t="s">
+      <c r="S74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="T73" s="32" t="s">
+      <c r="T74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="U73" s="32" t="s">
+      <c r="U74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="V73" s="32" t="s">
+      <c r="V74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="W73" s="32" t="s">
+      <c r="W74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="X73" s="32" t="s">
+      <c r="X74" s="32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="41"/>
-      <c r="P74" s="40"/>
     </row>
     <row r="75" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
@@ -4391,7 +4420,7 @@
       <c r="I76" s="40"/>
       <c r="J76" s="40"/>
       <c r="K76" s="40"/>
-      <c r="L76" s="43"/>
+      <c r="L76" s="40"/>
       <c r="M76" s="40"/>
       <c r="N76" s="40"/>
       <c r="O76" s="41"/>
@@ -4407,11 +4436,12 @@
       <c r="G77" s="39"/>
       <c r="H77" s="1"/>
       <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
       <c r="K77" s="40"/>
       <c r="L77" s="43"/>
       <c r="M77" s="40"/>
       <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
+      <c r="O77" s="41"/>
       <c r="P77" s="40"/>
     </row>
     <row r="78" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -4424,12 +4454,11 @@
       <c r="G78" s="39"/>
       <c r="H78" s="1"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
       <c r="K78" s="40"/>
       <c r="L78" s="43"/>
       <c r="M78" s="40"/>
       <c r="N78" s="40"/>
-      <c r="O78" s="41"/>
+      <c r="O78" s="40"/>
       <c r="P78" s="40"/>
     </row>
     <row r="79" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -4447,7 +4476,7 @@
       <c r="L79" s="43"/>
       <c r="M79" s="40"/>
       <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
+      <c r="O79" s="41"/>
       <c r="P79" s="40"/>
     </row>
     <row r="80" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -4480,17 +4509,29 @@
       <c r="I81" s="40"/>
       <c r="J81" s="40"/>
       <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
+      <c r="L81" s="43"/>
       <c r="M81" s="40"/>
       <c r="N81" s="40"/>
       <c r="O81" s="40"/>
-      <c r="P81" s="2"/>
+      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -4510,7 +4551,12 @@
       <c r="M85" s="40"/>
       <c r="N85" s="40"/>
     </row>
-    <row r="86" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+    </row>
     <row r="87" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4863,11 +4909,12 @@
     <row r="436" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="437" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="438" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A439" s="37"/>
-      <c r="B439" s="37"/>
-      <c r="M439" s="37"/>
-      <c r="N439" s="37"/>
+    <row r="439" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A440" s="37"/>
+      <c r="B440" s="37"/>
+      <c r="M440" s="37"/>
+      <c r="N440" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/JTPS-DEVQA/ConversionRates.xlsx
+++ b/TestData/JTPS-DEVQA/ConversionRates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
   <si>
     <t>EOF</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>allrows,value^ZXCVB,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Coversion Rates</t>
   </si>
 </sst>
 </file>
@@ -983,7 +989,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,8 +1095,12 @@
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -1135,8 +1145,12 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>8</v>

--- a/TestData/JTPS-DEVQA/ConversionRates.xlsx
+++ b/TestData/JTPS-DEVQA/ConversionRates.xlsx
@@ -22,9 +22,6 @@
     <t>elm_close</t>
   </si>
   <si>
-    <t>wnd_DayRanges</t>
-  </si>
-  <si>
     <t>pJTPS</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>Coversion Rates</t>
+  </si>
+  <si>
+    <t>wnd_Conversionrates</t>
   </si>
 </sst>
 </file>
@@ -988,15 +988,15 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1009,7 +1009,7 @@
     <col min="13" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
     <col min="17" max="21" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1019,112 +1019,112 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1138,48 +1138,48 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1197,19 +1197,19 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1217,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="11"/>
@@ -1239,33 +1239,33 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1282,19 +1282,19 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1302,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="11"/>
@@ -1324,33 +1324,33 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1367,34 +1367,34 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="18"/>
       <c r="M8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1411,36 +1411,36 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1457,33 +1457,33 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1500,31 +1500,31 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>1</v>
@@ -1544,19 +1544,19 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="16"/>
@@ -1586,36 +1586,36 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1632,36 +1632,36 @@
       <c r="C14" s="8"/>
       <c r="D14" s="13"/>
       <c r="E14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -1678,36 +1678,36 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -1724,36 +1724,36 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1770,36 +1770,36 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
@@ -1809,7 +1809,7 @@
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1818,36 +1818,36 @@
       <c r="C18" s="8"/>
       <c r="D18" s="13"/>
       <c r="E18" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1864,36 +1864,36 @@
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1910,36 +1910,36 @@
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -1956,36 +1956,36 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -2002,36 +2002,36 @@
       <c r="C22" s="8"/>
       <c r="D22" s="13"/>
       <c r="E22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2048,19 +2048,19 @@
       <c r="C23" s="8"/>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23" s="21"/>
       <c r="P23" s="16"/>
@@ -2090,36 +2090,36 @@
       <c r="C24" s="8"/>
       <c r="D24" s="13"/>
       <c r="E24" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2136,36 +2136,36 @@
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
       <c r="E25" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
@@ -2182,36 +2182,36 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
@@ -2228,26 +2228,26 @@
       <c r="C27" s="8"/>
       <c r="D27" s="13"/>
       <c r="E27" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="12"/>
       <c r="M27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="23"/>
       <c r="P27" s="24"/>
@@ -2259,7 +2259,7 @@
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2268,36 +2268,36 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2314,36 +2314,36 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -2360,36 +2360,36 @@
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2406,36 +2406,36 @@
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
@@ -2452,36 +2452,36 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -2498,33 +2498,33 @@
       <c r="C33" s="8"/>
       <c r="D33" s="13"/>
       <c r="E33" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="10"/>
@@ -2542,36 +2542,36 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -2588,33 +2588,33 @@
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>1</v>
@@ -2634,36 +2634,36 @@
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -2680,36 +2680,36 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -2726,36 +2726,36 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -2772,36 +2772,36 @@
       <c r="C39" s="8"/>
       <c r="D39" s="13"/>
       <c r="E39" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -2818,36 +2818,36 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -2864,36 +2864,36 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -2910,36 +2910,36 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -2956,36 +2956,36 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -3002,36 +3002,36 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G44" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -3048,33 +3048,33 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>1</v>
@@ -3094,36 +3094,36 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P46" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -3140,36 +3140,36 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -3186,36 +3186,36 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -3232,36 +3232,36 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3278,36 +3278,36 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -3324,36 +3324,36 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3370,36 +3370,36 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G52" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3416,33 +3416,33 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>1</v>
@@ -3462,36 +3462,36 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P54" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -3508,36 +3508,36 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -3554,36 +3554,36 @@
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
@@ -3600,33 +3600,33 @@
       <c r="C57" s="8"/>
       <c r="D57" s="13"/>
       <c r="E57" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>1</v>
@@ -3646,33 +3646,33 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G58" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="3"/>
@@ -3690,36 +3690,36 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -3736,36 +3736,36 @@
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -3782,36 +3782,36 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
@@ -3828,36 +3828,36 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -3874,33 +3874,33 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="10"/>
@@ -3918,33 +3918,33 @@
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G64" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>1</v>
@@ -3964,36 +3964,36 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P65" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -4010,36 +4010,36 @@
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -4056,36 +4056,36 @@
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
@@ -4102,36 +4102,36 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -4148,36 +4148,36 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
@@ -4194,35 +4194,35 @@
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
@@ -4239,36 +4239,36 @@
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
@@ -4285,33 +4285,33 @@
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G72" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>1</v>

--- a/TestData/JTPS-DEVQA/ConversionRates.xlsx
+++ b/TestData/JTPS-DEVQA/ConversionRates.xlsx
@@ -988,8 +988,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71:O72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1214,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>3</v>
@@ -1299,7 +1299,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>3</v>
@@ -2400,7 +2400,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="13"/>
@@ -2628,7 +2628,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="13"/>
@@ -2674,7 +2674,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="2"/>
       <c r="C37" s="13"/>
@@ -2904,7 +2904,7 @@
       <c r="W41" s="2"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="13"/>
@@ -3088,7 +3088,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="13"/>
@@ -3134,7 +3134,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="13"/>
@@ -3456,7 +3456,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="13"/>
@@ -3502,7 +3502,7 @@
       <c r="W54" s="2"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
@@ -3684,7 +3684,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
@@ -3730,7 +3730,7 @@
       <c r="W59" s="2"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
@@ -3958,7 +3958,7 @@
       <c r="W64" s="2"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
@@ -4004,7 +4004,7 @@
       <c r="W65" s="2"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>

--- a/TestData/JTPS-DEVQA/ConversionRates.xlsx
+++ b/TestData/JTPS-DEVQA/ConversionRates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -85,9 +85,6 @@
     <t>dbclick</t>
   </si>
   <si>
-    <t>Day Ranges,setproperty,innertext</t>
-  </si>
-  <si>
     <t>elm_Changessavedtothedatabase</t>
   </si>
   <si>
@@ -361,7 +358,7 @@
     <t>Coversion Rates</t>
   </si>
   <si>
-    <t>wnd_Conversionrates</t>
+    <t>wnd_ConversionRates</t>
   </si>
 </sst>
 </file>
@@ -988,8 +985,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,94 +1016,94 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -1115,16 +1112,16 @@
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1138,7 +1135,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1146,17 +1143,17 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1179,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1200,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1209,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1239,10 +1236,10 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1265,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1285,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -1294,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1327,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -1350,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1370,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>7</v>
@@ -1394,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1414,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
@@ -1423,12 +1420,12 @@
         <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -1460,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>7</v>
@@ -1483,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1503,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>7</v>
@@ -1524,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>1</v>
@@ -1547,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>7</v>
@@ -1556,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -1589,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
@@ -1635,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -1644,12 +1641,12 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1658,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>9</v>
@@ -1681,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>7</v>
@@ -1690,12 +1687,12 @@
         <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1704,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>14</v>
@@ -1727,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>7</v>
@@ -1736,12 +1733,12 @@
         <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>3</v>
@@ -1750,10 +1747,10 @@
         <v>2</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1770,10 +1767,10 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>7</v>
@@ -1782,12 +1779,12 @@
         <v>6</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1796,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
@@ -1809,7 +1806,7 @@
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1821,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>7</v>
@@ -1835,7 +1832,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1844,10 +1841,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1867,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -1876,12 +1873,12 @@
         <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>3</v>
@@ -1890,10 +1887,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1913,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -1922,12 +1919,12 @@
         <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1936,10 +1933,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -1959,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -1968,12 +1965,12 @@
         <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1982,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -2005,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
@@ -2019,7 +2016,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -2028,10 +2025,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2051,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>7</v>
@@ -2060,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -2093,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>7</v>
@@ -2107,7 +2104,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -2116,10 +2113,10 @@
         <v>2</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2136,10 +2133,10 @@
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
       <c r="E25" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>7</v>
@@ -2162,10 +2159,10 @@
         <v>2</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
@@ -2182,10 +2179,10 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="27" t="s">
         <v>7</v>
@@ -2194,12 +2191,12 @@
         <v>6</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -2208,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>15</v>
@@ -2228,10 +2225,10 @@
       <c r="C27" s="8"/>
       <c r="D27" s="13"/>
       <c r="E27" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>7</v>
@@ -2259,7 +2256,7 @@
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2271,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>7</v>
@@ -2294,10 +2291,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2317,7 +2314,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>7</v>
@@ -2331,7 +2328,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2340,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>17</v>
@@ -2363,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>7</v>
@@ -2377,7 +2374,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>3</v>
@@ -2386,10 +2383,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2409,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>7</v>
@@ -2423,7 +2420,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>3</v>
@@ -2432,10 +2429,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
@@ -2455,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>7</v>
@@ -2478,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>9</v>
@@ -2510,12 +2507,12 @@
         <v>6</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -2524,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="10"/>
@@ -2554,12 +2551,12 @@
         <v>6</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>3</v>
@@ -2568,10 +2565,10 @@
         <v>2</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -2591,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>7</v>
@@ -2614,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>1</v>
@@ -2651,7 +2648,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>3</v>
@@ -2729,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>7</v>
@@ -2743,7 +2740,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>3</v>
@@ -2752,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>15</v>
@@ -2775,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>7</v>
@@ -2798,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -2821,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>7</v>
@@ -2835,7 +2832,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>3</v>
@@ -2844,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>17</v>
@@ -2867,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>7</v>
@@ -2881,7 +2878,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2890,10 +2887,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -2913,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>7</v>
@@ -2927,7 +2924,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2936,10 +2933,10 @@
         <v>2</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -2982,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>9</v>
@@ -3014,12 +3011,12 @@
         <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -3028,10 +3025,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -3051,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>7</v>
@@ -3074,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>1</v>
@@ -3111,7 +3108,7 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -3189,7 +3186,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>7</v>
@@ -3212,10 +3209,10 @@
         <v>2</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -3235,7 +3232,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>7</v>
@@ -3249,7 +3246,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -3258,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3304,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>9</v>
@@ -3336,12 +3333,12 @@
         <v>6</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>3</v>
@@ -3350,10 +3347,10 @@
         <v>2</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3382,12 +3379,12 @@
         <v>6</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -3396,10 +3393,10 @@
         <v>2</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3419,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>7</v>
@@ -3442,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>1</v>
@@ -3479,7 +3476,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -3557,7 +3554,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>7</v>
@@ -3571,7 +3568,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>3</v>
@@ -3580,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>17</v>
@@ -3603,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>7</v>
@@ -3626,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>1</v>
@@ -3658,12 +3655,12 @@
         <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3672,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="3"/>
@@ -3707,7 +3704,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3799,7 +3796,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>3</v>
@@ -3808,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>17</v>
@@ -3854,7 +3851,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>9</v>
@@ -3886,12 +3883,12 @@
         <v>6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>3</v>
@@ -3900,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="10"/>
@@ -3944,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>1</v>
@@ -3981,7 +3978,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="18" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>3</v>
@@ -4082,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>17</v>
@@ -4119,7 +4116,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>3</v>
@@ -4128,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>15</v>
@@ -4174,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>14</v>
@@ -4265,7 +4262,7 @@
         <v>2</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>9</v>
@@ -4311,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>1</v>

--- a/TestData/JTPS-DEVQA/ConversionRates.xlsx
+++ b/TestData/JTPS-DEVQA/ConversionRates.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
@@ -9,12 +9,46 @@
   <sheets>
     <sheet name="ConversionRates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nelapatla, Ramana M</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nelapatla, Ramana M:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is final version update on 26/02/2016</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="116">
   <si>
     <t>EOF</t>
   </si>
@@ -49,9 +83,6 @@
     <t>5.3.2.2</t>
   </si>
   <si>
-    <t>btn_Yes</t>
-  </si>
-  <si>
     <t>elm_deleteConfirmation</t>
   </si>
   <si>
@@ -202,9 +233,6 @@
     <t>English,French,Spanish,Russian</t>
   </si>
   <si>
-    <t xml:space="preserve">No code for lst or list verification </t>
-  </si>
-  <si>
     <t>5.2.0</t>
   </si>
   <si>
@@ -340,32 +368,41 @@
     <t>Run_TestCase</t>
   </si>
   <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>btn_Ok</t>
+  </si>
+  <si>
+    <t>YX</t>
+  </si>
+  <si>
+    <t>elm_Close</t>
+  </si>
+  <si>
+    <t>wnd_ConversionRates</t>
+  </si>
+  <si>
     <t>Conversion Rates,setproperty,innertext</t>
   </si>
   <si>
-    <t>ZXCVB</t>
-  </si>
-  <si>
-    <t>allrows,value^ZXCVB</t>
-  </si>
-  <si>
-    <t>allrows,value^ZXCVB,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
-    <t>TS001</t>
-  </si>
-  <si>
-    <t>Coversion Rates</t>
-  </si>
-  <si>
-    <t>wnd_ConversionRates</t>
+    <t>Conversion Rates</t>
+  </si>
+  <si>
+    <t>allrows,value^zxyzx</t>
+  </si>
+  <si>
+    <t>zxyzx</t>
+  </si>
+  <si>
+    <t>allrows,value^zxyzx,Description^Automation,short description^Automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +438,19 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -459,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -545,17 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -564,7 +603,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -653,9 +692,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -665,20 +701,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -981,19 +1011,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:X73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1006,7 +1036,7 @@
     <col min="13" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" style="1" customWidth="1"/>
     <col min="17" max="21" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1015,95 +1045,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="G1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="H1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="M1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="N1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="Q1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="S1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="T1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="X1" s="36" t="s">
-        <v>79</v>
+      <c r="V1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -1112,16 +1142,16 @@
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1135,7 +1165,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1143,17 +1173,17 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1176,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1197,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1206,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1236,10 +1266,10 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1262,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1282,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -1291,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1324,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -1347,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1367,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>7</v>
@@ -1380,7 +1410,9 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="18"/>
+      <c r="L8" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1388,10 +1420,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1402,7 +1434,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
@@ -1411,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
@@ -1420,12 +1452,12 @@
         <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="34" t="s">
-        <v>108</v>
+      <c r="L9" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -1434,10 +1466,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1457,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>7</v>
@@ -1479,8 +1511,8 @@
       <c r="N10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="33" t="s">
-        <v>66</v>
+      <c r="O10" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1500,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>7</v>
@@ -1513,7 +1545,9 @@
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="M11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1521,9 +1555,9 @@
         <v>2</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P11" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="32" t="s">
         <v>1</v>
       </c>
       <c r="Q11" s="10"/>
@@ -1544,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>7</v>
@@ -1553,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -1575,9 +1609,9 @@
       <c r="U12" s="21"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="31"/>
-    </row>
-    <row r="13" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="X12" s="30"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
@@ -1586,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
@@ -1599,8 +1633,8 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="17" t="s">
-        <v>22</v>
+      <c r="L13" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>3</v>
@@ -1609,10 +1643,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1621,10 +1655,10 @@
       <c r="U13" s="3"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="31"/>
+      <c r="X13" s="30"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
       <c r="D14" s="13"/>
@@ -1632,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -1641,12 +1675,12 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="32" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1654,31 +1688,31 @@
       <c r="N14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+      <c r="O14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="31"/>
+      <c r="X14" s="30"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>7</v>
@@ -1687,12 +1721,12 @@
         <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="12" t="s">
-        <v>24</v>
+      <c r="L15" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1701,10 +1735,10 @@
         <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>14</v>
+        <v>110</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -1713,18 +1747,18 @@
       <c r="U15" s="10"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="9"/>
+      <c r="X15" s="30"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>7</v>
@@ -1733,12 +1767,12 @@
         <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>3</v>
@@ -1747,10 +1781,10 @@
         <v>2</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1766,25 +1800,25 @@
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>25</v>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1792,33 +1826,31 @@
       <c r="N17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="O17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>7</v>
@@ -1827,12 +1859,12 @@
         <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="12" t="s">
-        <v>61</v>
+      <c r="L18" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1841,10 +1873,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>51</v>
+        <v>110</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1858,13 +1890,13 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -1873,12 +1905,12 @@
         <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>3</v>
@@ -1887,10 +1919,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1899,18 +1931,18 @@
       <c r="U19" s="10"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="3"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -1919,12 +1951,12 @@
         <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="12" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="18">
+        <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1932,12 +1964,8 @@
       <c r="N20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="O20" s="32"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -1945,18 +1973,18 @@
       <c r="U20" s="10"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -1965,12 +1993,11 @@
         <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>5</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1978,11 +2005,11 @@
       <c r="N21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>57</v>
+      <c r="O21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -1991,18 +2018,18 @@
       <c r="U21" s="10"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="3"/>
+      <c r="X21" s="9"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
@@ -2016,7 +2043,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -2025,10 +2052,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>51</v>
+        <v>110</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2048,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>7</v>
@@ -2057,12 +2084,12 @@
         <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="18">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -2070,13 +2097,15 @@
       <c r="N23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
+      <c r="O23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="9"/>
@@ -2090,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>7</v>
@@ -2099,12 +2128,12 @@
         <v>6</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -2113,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2132,25 +2161,25 @@
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>5</v>
+      <c r="E25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>3</v>
@@ -2158,45 +2187,45 @@
       <c r="N25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P25" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="9"/>
+      <c r="O25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>49</v>
+      <c r="E26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="15" t="s">
-        <v>48</v>
+      <c r="L26" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -2204,71 +2233,77 @@
       <c r="N26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
+      <c r="O26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="25"/>
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="12"/>
+      <c r="L27" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="O27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>7</v>
@@ -2282,7 +2317,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="12" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>3</v>
@@ -2291,10 +2326,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2308,13 +2343,13 @@
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="13"/>
       <c r="E29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>7</v>
@@ -2323,12 +2358,12 @@
         <v>6</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="12" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="18">
+        <v>1</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2336,17 +2371,13 @@
       <c r="N29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="9"/>
@@ -2354,13 +2385,13 @@
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>7</v>
@@ -2373,8 +2404,8 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="19" t="s">
-        <v>109</v>
+      <c r="L30" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>3</v>
@@ -2383,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>32</v>
+        <v>110</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2400,27 +2431,27 @@
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="E31" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="12" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>3</v>
@@ -2428,19 +2459,19 @@
       <c r="N31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O31" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
+      <c r="O31" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
       <c r="X31" s="9"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -2448,25 +2479,25 @@
       <c r="B32" s="2"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>5</v>
+      <c r="E32" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="12" t="s">
-        <v>4</v>
+      <c r="L32" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -2474,64 +2505,60 @@
       <c r="N32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="9"/>
+      <c r="O32" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="25"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="L33" s="12"/>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="3"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -2542,7 +2569,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>7</v>
@@ -2551,12 +2578,12 @@
         <v>6</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="12" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>3</v>
@@ -2565,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>32</v>
@@ -2588,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>7</v>
@@ -2602,7 +2629,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="12" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -2611,10 +2638,10 @@
         <v>2</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -2634,7 +2661,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>7</v>
@@ -2645,10 +2672,10 @@
       <c r="I36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18" t="s">
-        <v>108</v>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>3</v>
@@ -2656,23 +2683,23 @@
       <c r="N36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="O36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="9"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -2680,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>7</v>
@@ -2693,8 +2720,8 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="17" t="s">
-        <v>22</v>
+      <c r="L37" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>3</v>
@@ -2702,22 +2729,22 @@
       <c r="N37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="O37" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="13"/>
@@ -2726,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>7</v>
@@ -2735,12 +2762,12 @@
         <v>6</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="14" t="s">
-        <v>111</v>
+      <c r="L38" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>3</v>
@@ -2749,18 +2776,18 @@
         <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
       <c r="X38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -2772,7 +2799,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>7</v>
@@ -2781,12 +2808,12 @@
         <v>6</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>3</v>
@@ -2795,11 +2822,9 @@
         <v>2</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P39" s="11"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -2818,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>7</v>
@@ -2827,12 +2852,12 @@
         <v>6</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>3</v>
@@ -2841,10 +2866,10 @@
         <v>2</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -2853,7 +2878,7 @@
       <c r="U40" s="10"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="3"/>
+      <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -2864,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>7</v>
@@ -2877,8 +2902,8 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="19" t="s">
-        <v>109</v>
+      <c r="L41" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2887,10 +2912,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -2899,7 +2924,7 @@
       <c r="U41" s="10"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="3"/>
+      <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -2910,7 +2935,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>7</v>
@@ -2921,10 +2946,10 @@
       <c r="I42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="12" t="s">
-        <v>38</v>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2932,23 +2957,23 @@
       <c r="N42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O42" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
+      <c r="O42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="3"/>
+      <c r="X42" s="9"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="2"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -2956,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>7</v>
@@ -2969,8 +2994,8 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="12" t="s">
-        <v>4</v>
+      <c r="L43" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2978,22 +3003,22 @@
       <c r="N43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O43" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
+      <c r="O43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="13"/>
@@ -3002,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>7</v>
@@ -3011,12 +3036,12 @@
         <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="12" t="s">
-        <v>36</v>
+      <c r="L44" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -3025,19 +3050,19 @@
         <v>2</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="3"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -3048,7 +3073,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>7</v>
@@ -3071,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>1</v>
@@ -3081,9 +3106,9 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="3"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -3094,7 +3119,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>7</v>
@@ -3108,7 +3133,7 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -3117,19 +3142,19 @@
         <v>2</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P46" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -3140,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>7</v>
@@ -3154,7 +3179,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -3163,30 +3188,30 @@
         <v>2</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="9"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="13"/>
       <c r="E48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>7</v>
@@ -3209,10 +3234,10 @@
         <v>2</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -3232,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>7</v>
@@ -3245,8 +3270,8 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="19" t="s">
-        <v>109</v>
+      <c r="L49" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -3255,10 +3280,10 @@
         <v>2</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3278,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>7</v>
@@ -3291,8 +3316,8 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="12" t="s">
-        <v>4</v>
+      <c r="L50" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>3</v>
@@ -3301,10 +3326,10 @@
         <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -3315,7 +3340,7 @@
       <c r="W50" s="2"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="13"/>
@@ -3324,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>7</v>
@@ -3333,12 +3358,12 @@
         <v>6</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="15" t="s">
-        <v>24</v>
+      <c r="L51" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>3</v>
@@ -3347,10 +3372,10 @@
         <v>2</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3361,7 +3386,7 @@
       <c r="W51" s="2"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="13"/>
@@ -3370,7 +3395,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>7</v>
@@ -3379,12 +3404,12 @@
         <v>6</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="15" t="s">
-        <v>24</v>
+      <c r="L52" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -3393,10 +3418,10 @@
         <v>2</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3407,7 +3432,7 @@
       <c r="W52" s="2"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="13"/>
@@ -3416,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>7</v>
@@ -3425,12 +3450,12 @@
         <v>6</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="12" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>3</v>
@@ -3439,10 +3464,10 @@
         <v>2</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -3462,7 +3487,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>7</v>
@@ -3475,8 +3500,8 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="18" t="s">
-        <v>108</v>
+      <c r="L54" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -3484,17 +3509,17 @@
       <c r="N54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P54" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
+      <c r="O54" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="3"/>
@@ -3508,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>7</v>
@@ -3519,10 +3544,10 @@
       <c r="I55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="17" t="s">
-        <v>22</v>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>3</v>
@@ -3531,10 +3556,10 @@
         <v>2</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -3554,7 +3579,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>7</v>
@@ -3567,8 +3592,8 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="15" t="s">
-        <v>26</v>
+      <c r="L56" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>3</v>
@@ -3576,17 +3601,17 @@
       <c r="N56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O56" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
+      <c r="O56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="3"/>
@@ -3594,13 +3619,13 @@
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="8"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>7</v>
@@ -3623,10 +3648,10 @@
         <v>2</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
@@ -3646,7 +3671,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>7</v>
@@ -3655,12 +3680,12 @@
         <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="15" t="s">
-        <v>27</v>
+      <c r="L58" s="12">
+        <v>1</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3668,15 +3693,13 @@
       <c r="N58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O58" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="3"/>
@@ -3690,7 +3713,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>7</v>
@@ -3703,8 +3726,8 @@
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="18" t="s">
-        <v>108</v>
+      <c r="L59" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3712,17 +3735,17 @@
       <c r="N59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P59" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
+      <c r="O59" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="3"/>
@@ -3736,7 +3759,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>7</v>
@@ -3749,8 +3772,8 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="17" t="s">
-        <v>22</v>
+      <c r="L60" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -3758,17 +3781,17 @@
       <c r="N60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
+      <c r="O60" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="3"/>
@@ -3782,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>7</v>
@@ -3795,8 +3818,8 @@
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="15" t="s">
-        <v>26</v>
+      <c r="L61" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>3</v>
@@ -3805,10 +3828,10 @@
         <v>2</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
@@ -3828,7 +3851,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>7</v>
@@ -3837,12 +3860,12 @@
         <v>6</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="12" t="s">
-        <v>4</v>
+      <c r="L62" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3851,10 +3874,10 @@
         <v>2</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -3874,7 +3897,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>7</v>
@@ -3883,12 +3906,12 @@
         <v>6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="12" t="s">
-        <v>24</v>
+      <c r="L63" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>3</v>
@@ -3897,9 +3920,11 @@
         <v>2</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P63" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
@@ -3918,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>7</v>
@@ -3941,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>1</v>
@@ -3953,7 +3978,7 @@
       <c r="U64" s="10"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="9"/>
+      <c r="X64" s="3"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
@@ -3964,7 +3989,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>7</v>
@@ -3978,7 +4003,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>3</v>
@@ -3987,10 +4012,10 @@
         <v>2</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P65" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -3999,7 +4024,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="9"/>
+      <c r="X65" s="3"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
@@ -4010,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>7</v>
@@ -4024,7 +4049,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -4033,10 +4058,10 @@
         <v>2</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -4045,7 +4070,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
-      <c r="X66" s="9"/>
+      <c r="X66" s="3"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
@@ -4056,7 +4081,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>7</v>
@@ -4065,12 +4090,12 @@
         <v>6</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>3</v>
@@ -4079,10 +4104,10 @@
         <v>2</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
@@ -4091,18 +4116,18 @@
       <c r="U67" s="10"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
-      <c r="X67" s="9"/>
+      <c r="X67" s="3"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="13"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>7</v>
@@ -4111,24 +4136,24 @@
         <v>6</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="14" t="s">
+      <c r="L68" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O68" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O68" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="P68" s="11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -4137,7 +4162,7 @@
       <c r="U68" s="10"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
-      <c r="X68" s="9"/>
+      <c r="X68" s="3"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
@@ -4148,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>7</v>
@@ -4157,12 +4182,12 @@
         <v>6</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="12" t="s">
-        <v>4</v>
+      <c r="L69" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>3</v>
@@ -4171,19 +4196,17 @@
         <v>2</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P69" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
-      <c r="X69" s="9"/>
+      <c r="X69" s="3"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
@@ -4194,7 +4217,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>7</v>
@@ -4205,9 +4228,10 @@
       <c r="I70" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="12" t="s">
-        <v>4</v>
+      <c r="L70" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>3</v>
@@ -4215,20 +4239,20 @@
       <c r="N70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
+      <c r="O70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="9"/>
+      <c r="X70" s="3"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
@@ -4239,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>7</v>
@@ -4252,8 +4276,8 @@
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="12" t="s">
-        <v>4</v>
+      <c r="L71" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>3</v>
@@ -4261,17 +4285,17 @@
       <c r="N71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O71" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
+      <c r="O71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="3"/>
@@ -4285,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>7</v>
@@ -4298,8 +4322,8 @@
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="12" t="s">
-        <v>4</v>
+      <c r="L72" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -4308,10 +4332,10 @@
         <v>2</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
@@ -4320,79 +4344,670 @@
       <c r="U72" s="10"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
-      <c r="X72" s="9"/>
+      <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="9"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="9"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="9"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="9"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O79" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="9"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="9"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="35">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O81" s="32"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="9"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="9"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="9"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="9"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="L86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N73" s="3" t="s">
+      <c r="N86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O73" s="3" t="s">
+      <c r="O86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="P86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="Q86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S73" s="2" t="s">
+      <c r="S86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="T86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U73" s="2" t="s">
+      <c r="U86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V73" s="2" t="s">
+      <c r="V86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W73" s="2" t="s">
+      <c r="W86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X73" s="2" t="s">
+      <c r="X86" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4401,5 +5016,7 @@
     <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>